--- a/Data/Output/Assignment1.xlsx
+++ b/Data/Output/Assignment1.xlsx
@@ -26,7 +26,7 @@
     <x:t>Prev value</x:t>
   </x:si>
   <x:si>
-    <x:t>56 week high</x:t>
+    <x:t>52 week high</x:t>
   </x:si>
   <x:si>
     <x:t>Face value</x:t>
@@ -41,12 +41,12 @@
     <x:t>1,707.05</x:t>
   </x:si>
   <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,737.90</x:t>
   </x:si>
   <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
     <x:t>TCS</x:t>
   </x:si>
   <x:si>
@@ -56,12 +56,12 @@
     <x:t>4,169.20</x:t>
   </x:si>
   <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
     <x:t>4,254.75</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
     <x:t>WIPRO</x:t>
   </x:si>
   <x:si>
@@ -71,12 +71,12 @@
     <x:t>559.70</x:t>
   </x:si>
   <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
     <x:t>566.90</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
     <x:t>SOUTHBANK</x:t>
   </x:si>
   <x:si>
@@ -110,10 +110,10 @@
     <x:t>87.37</x:t>
   </x:si>
   <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
     <x:t>107.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>FSL</x:t>
@@ -655,10 +655,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>23</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -672,10 +672,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -706,10 +706,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
         <x:v>36</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -723,10 +723,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
         <x:v>40</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -740,10 +740,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -757,10 +757,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -774,10 +774,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -791,10 +791,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -808,10 +808,10 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -825,10 +825,10 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
         <x:v>61</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/Assignment1.xlsx
+++ b/Data/Output/Assignment1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>CompanyCode</x:t>
   </x:si>
@@ -38,42 +38,123 @@
     <x:t>Infosys Limited</x:t>
   </x:si>
   <x:si>
+    <x:t>1,792.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,844.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TCS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tata Consultancy Services Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,302.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,358.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WIPRO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wipro Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>557.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>579.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNITEDPOLY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>United Polyfab Gujarat Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIVIDHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Visagar Polytex Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICICI500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICICI Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15,000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CANBK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canara Bank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FEDERALBNK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Federal Bank  Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191.47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>197.77</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,707.05</x:t>
   </x:si>
   <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
     <x:t>1,737.90</x:t>
   </x:si>
   <x:si>
-    <x:t>TCS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tata Consultancy Services Limited</x:t>
-  </x:si>
-  <x:si>
     <x:t>4,169.20</x:t>
   </x:si>
   <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
     <x:t>4,254.75</x:t>
   </x:si>
   <x:si>
-    <x:t>WIPRO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wipro Limited</x:t>
-  </x:si>
-  <x:si>
     <x:t>559.70</x:t>
   </x:si>
   <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
     <x:t>566.90</x:t>
   </x:si>
   <x:si>
@@ -89,12 +170,6 @@
     <x:t>37.18</x:t>
   </x:si>
   <x:si>
-    <x:t>FEDERALBNK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Federal Bank  Limited</x:t>
-  </x:si>
-  <x:si>
     <x:t>194.75</x:t>
   </x:si>
   <x:si>
@@ -110,9 +185,6 @@
     <x:t>87.37</x:t>
   </x:si>
   <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
     <x:t>107.50</x:t>
   </x:si>
   <x:si>
@@ -128,30 +200,12 @@
     <x:t>258.95</x:t>
   </x:si>
   <x:si>
-    <x:t>UNITEDPOLY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>United Polyfab Gujarat Limited</x:t>
-  </x:si>
-  <x:si>
     <x:t>88.27</x:t>
   </x:si>
   <x:si>
-    <x:t>122.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIVIDHA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Visagar Polytex Limited</x:t>
-  </x:si>
-  <x:si>
     <x:t>1.17</x:t>
   </x:si>
   <x:si>
-    <x:t>2.10</x:t>
-  </x:si>
-  <x:si>
     <x:t>IVC</x:t>
   </x:si>
   <x:si>
@@ -176,9 +230,6 @@
     <x:t>1,257.80</x:t>
   </x:si>
   <x:si>
-    <x:t>ICICI500</x:t>
-  </x:si>
-  <x:si>
     <x:t>IOB</x:t>
   </x:si>
   <x:si>
@@ -191,16 +242,7 @@
     <x:t>83.75</x:t>
   </x:si>
   <x:si>
-    <x:t>CANBK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Canara Bank</x:t>
-  </x:si>
-  <x:si>
     <x:t>117.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128.90</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -556,7 +598,201 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -601,13 +837,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -618,13 +854,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -635,200 +871,200 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Data/Output/Assignment1.xlsx
+++ b/Data/Output/Assignment1.xlsx
@@ -7,7 +7,6 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="NSE" sheetId="2" r:id="rId2"/>
-    <x:sheet name="NSEData" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>CompanyCode</x:t>
   </x:si>
@@ -38,13 +37,13 @@
     <x:t>Infosys Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>1,792.95</x:t>
+    <x:t>1,852.60</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>1,844.00</x:t>
+    <x:t>74.01</x:t>
   </x:si>
   <x:si>
     <x:t>TCS</x:t>
@@ -53,13 +52,13 @@
     <x:t>Tata Consultancy Services Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>4,302.40</x:t>
+    <x:t>4,397.10</x:t>
   </x:si>
   <x:si>
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>4,358.75</x:t>
+    <x:t>28.11</x:t>
   </x:si>
   <x:si>
     <x:t>WIPRO</x:t>
@@ -68,13 +67,64 @@
     <x:t>Wipro Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>557.20</x:t>
+    <x:t>521.55</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>579.90</x:t>
+    <x:t>78.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOUTHBANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The South Indian Bank Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>178.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FEDERALBNK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Federal Bank  Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPIC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Southern Petrochemicals Industries Corporation  Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84.65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FSL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Firstsource Solutions Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>301.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75.85</x:t>
   </x:si>
   <x:si>
     <x:t>UNITEDPOLY</x:t>
@@ -83,13 +133,10 @@
     <x:t>United Polyfab Gujarat Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>85.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122.50</x:t>
+    <x:t>87.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.27</x:t>
   </x:si>
   <x:si>
     <x:t>VIVIDHA</x:t>
@@ -98,22 +145,46 @@
     <x:t>Visagar Polytex Limited</x:t>
   </x:si>
   <x:si>
-    <x:t>1.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICICI500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICICI Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15,000</x:t>
+    <x:t>1.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IVC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IL&amp;FS Investment Managers Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICICIBANK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ICICI Bank Limited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,210.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IOB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indian Overseas Bank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156.69</x:t>
   </x:si>
   <x:si>
     <x:t>CANBK</x:t>
@@ -122,127 +193,10 @@
     <x:t>Canara Bank</x:t>
   </x:si>
   <x:si>
-    <x:t>112.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FEDERALBNK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Federal Bank  Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>191.47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197.77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,707.05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,737.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,169.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,254.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>559.70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>566.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SOUTHBANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The South Indian Bank Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26.56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>194.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>197.19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPIC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Southern Petrochemicals Industries Corporation  Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87.37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FSL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Firstsource Solutions Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>252.98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IVC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IL&amp;FS Investment Managers Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICICIBANK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ICICI Bank Limited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,229.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,257.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IOB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indian Overseas Bank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68.42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>83.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117.25</x:t>
+    <x:t>112.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>279.44</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -593,7 +547,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A1"/>
+  <x:dimension ref="A1:E2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -635,232 +589,19 @@
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="A15" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E15"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -871,200 +612,183 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="A15" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
